--- a/data/trans_bre/P20_1_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P20_1_R-Urba-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>-1,64</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,05%</t>
+          <t>10,96%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,83%</t>
+          <t>-12,51%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 4,99</t>
+          <t>-3,15; 4,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 3,39</t>
+          <t>-7,08; 2,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-22,72; 55,5</t>
+          <t>-24,15; 51,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-32,92; 32,17</t>
+          <t>-41,57; 19,87</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,09</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>30,66%</t>
+          <t>30,09%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,62%</t>
+          <t>15,56%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 6,91</t>
+          <t>-1,0; 6,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 4,82</t>
+          <t>-3,02; 5,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-13,23; 86,7</t>
+          <t>-9,6; 87,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-39,2; 49,92</t>
+          <t>-23,52; 70,05</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,21</t>
+          <t>4,26</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,13</t>
+          <t>3,29</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>67,17%</t>
+          <t>73,84%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>42,73%</t>
+          <t>47,09%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 10,83</t>
+          <t>-1,71; 10,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 9,7</t>
+          <t>-3,27; 10,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-29,0; 315,63</t>
+          <t>-24,34; 354,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-39,71; 217,59</t>
+          <t>-36,4; 244,96</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,41</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>23,76%</t>
+          <t>23,47%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,33%</t>
+          <t>2,25%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,29 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 5,19</t>
+          <t>-0,62; 4,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 2,96</t>
+          <t>-2,56; 3,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 59,73</t>
+          <t>-5,94; 54,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-24,29; 28,07</t>
+          <t>-19,85; 34,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P20_1_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P20_1_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,12</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,64</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>10,96%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-12,51%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.348864655592365</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.8736718683221845</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.1206352473673451</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.06448525353702333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-3,15; 4,3</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-7,08; 2,07</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-24,15; 51,62</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-41,57; 19,87</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-3.466585919004</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-5.914373621824502</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.2429344124436412</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.3514540356656615</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>4.734289257761303</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>3.254940753302069</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.547971181837957</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.3086170377437324</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>2,84</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,61</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>30,09%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>15,56%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-1,0; 6,48</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-3,02; 5,97</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-9,6; 87,35</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-23,52; 70,05</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>3.0926611638298</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.6618188413124295</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.3070234450700423</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.06012337526008756</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>4,26</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,29</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>73,84%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>47,09%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-1.199890764820171</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-4.01068572322937</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.1095174020477045</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.3017892122097396</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-1,71; 10,9</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-3,27; 10,0</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-24,34; 354,8</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-36,4; 244,96</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>7.180989770949542</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>5.139514434639272</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.8899134274150472</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.5838680862777669</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,57 +716,125 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>2,19</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,25</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>23,47%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2,25%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>4.211808804312993</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>3.757130958782862</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.6721228319600953</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.5566550590395598</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-0,62; 4,45</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,56; 3,23</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-5,94; 54,09</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-19,85; 34,36</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-2.295863069659208</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-3.117202219572615</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.2661576767894047</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.3293569097976813</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>10.56815363103995</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>10.84624189339837</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>3.099368982827784</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>3.282928529441493</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>2.409297384099192</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.2989112947751019</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.2378671676607504</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.02547278557286872</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.1526809376394998</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.851256249129711</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.01684180295891327</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.2121446437947166</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>4.871872089800464</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>2.953307237905078</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.5575277309556005</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.2996425458769602</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -817,13 +842,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
